--- a/results/pseudomonas_putida/Muconate_Study/pseudomonas_carbon_source_enriched_Function.xlsx
+++ b/results/pseudomonas_putida/Muconate_Study/pseudomonas_carbon_source_enriched_Function.xlsx
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="41">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="10">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="21">
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="67">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="84">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="63">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="11">
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="42">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -4710,7 +4710,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="7">
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="15">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="26">
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="60">
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="67">
@@ -5729,7 +5729,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="15">
@@ -5833,7 +5833,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="23">
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="25">
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="34">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="41">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="74">
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="56">
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="66">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="7">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -7923,7 +7923,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="23">
@@ -9137,7 +9137,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="26">
@@ -9657,7 +9657,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="66">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="15">
@@ -9922,7 +9922,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="16">
@@ -9974,7 +9974,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="20">
@@ -10156,7 +10156,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="41">
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
@@ -10585,7 +10585,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="67">
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="83">
@@ -10858,7 +10858,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="88">
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="15">
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="56">
@@ -11747,7 +11747,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="66">
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="15">
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="35">
@@ -12753,7 +12753,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="73">
@@ -12766,7 +12766,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="74">
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="77">
@@ -12857,7 +12857,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="81">
@@ -12870,7 +12870,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="82">
@@ -13070,7 +13070,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="7">
@@ -13122,7 +13122,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="11">
@@ -14206,7 +14206,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -14349,7 +14349,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -14401,7 +14401,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19">
@@ -14687,7 +14687,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41">
@@ -14765,7 +14765,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -15173,7 +15173,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -15251,7 +15251,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -15264,7 +15264,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -15342,7 +15342,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -15823,7 +15823,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58">
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
@@ -16582,7 +16582,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
@@ -17115,7 +17115,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
@@ -18867,7 +18867,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="41">
@@ -19205,7 +19205,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="67">
@@ -19860,7 +19860,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="47">
@@ -20250,7 +20250,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="77">
@@ -20749,7 +20749,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -21378,7 +21378,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -21534,7 +21534,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -22028,7 +22028,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -22093,7 +22093,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58">
@@ -22262,7 +22262,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76">
@@ -22683,7 +22683,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -22800,7 +22800,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -22839,7 +22839,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -23385,7 +23385,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
@@ -23624,7 +23624,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -24118,7 +24118,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="53">
